--- a/biology/Histoire de la zoologie et de la botanique/Mark_Wilkinson_(herpétologiste)/Mark_Wilkinson_(herpétologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Mark_Wilkinson_(herpétologiste)/Mark_Wilkinson_(herpétologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mark_Wilkinson_(herp%C3%A9tologiste)</t>
+          <t>Mark_Wilkinson_(herpétologiste)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mark Wilkinson est un herpétologiste britannique né en 1963.
 Il obtient son doctorat en 1993 à l'université de Bristol. Il se consacre aux problèmes de systématique phylogénétique, particulièrement des amphibiens de l'ordre des Gymnophiona. Il travaille au sein du Natural History Museum de Londres.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mark_Wilkinson_(herp%C3%A9tologiste)</t>
+          <t>Mark_Wilkinson_(herpétologiste)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amietophrynus Frost, Grant, Faivovich, Bain, Haas, Haddad, de Sá, Channing, Wilkinson, Donnellan, Raxworthy, Campbell, Blotto, Moler, Drewes, Nussbaum, Lynch, Green &amp; Wheeler, 2006
 Atretochoana Nussbaum &amp; Wilkinson, 1995
